--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Release/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Release/__enums__.xlsx
@@ -1,110 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Release/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET8/Unity/Assets/Config/Excel/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3C70C9-D3DB-4548-8DC4-CE244E34F0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14C781-D37B-C84A-ABA4-7414820A7958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="580" windowWidth="17640" windowHeight="11380" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24040" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
   <si>
     <t>枚举名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为位标记枚举（即每个枚举项为位标记数据，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -116,14 +88,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -137,7 +108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,16 +123,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -244,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,26 +248,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -329,23 +283,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,122 +425,122 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="A4:K16"/>
+      <selection activeCell="L10" sqref="B4:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="99" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>